--- a/documents/sprints.xlsx
+++ b/documents/sprints.xlsx
@@ -11,9 +11,6 @@
     <sheet name="sprint 2" sheetId="2" r:id="rId2"/>
     <sheet name="sprint 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -1100,42 +1097,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1182,6 +1143,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1202,10 +1199,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.9687445319335087E-2"/>
-          <c:y val="6.0143627879848352E-2"/>
-          <c:w val="0.75765655827810063"/>
-          <c:h val="0.72141172318664171"/>
+          <c:x val="6.9687445319335101E-2"/>
+          <c:y val="6.0143627879848373E-2"/>
+          <c:w val="0.75765655827810074"/>
+          <c:h val="0.7214117231866416"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1499,11 +1496,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="137591040"/>
-        <c:axId val="140374016"/>
+        <c:axId val="143407744"/>
+        <c:axId val="143425920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="137591040"/>
+        <c:axId val="143407744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43170"/>
@@ -1511,13 +1508,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140374016"/>
+        <c:crossAx val="143425920"/>
         <c:crossesAt val="-20"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="140374016"/>
+        <c:axId val="143425920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1525,20 +1522,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137591040"/>
+        <c:crossAx val="143407744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1554,10 +1550,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.5548563158700396E-2"/>
-          <c:y val="3.4326632999452732E-2"/>
-          <c:w val="0.79885564705907919"/>
-          <c:h val="0.73184297373410734"/>
+          <c:x val="2.5548563158700393E-2"/>
+          <c:y val="3.4326632999452725E-2"/>
+          <c:w val="0.79885564705907941"/>
+          <c:h val="0.73184297373410745"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1731,24 +1727,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="142209792"/>
-        <c:axId val="142247424"/>
+        <c:axId val="143504128"/>
+        <c:axId val="143505664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="142209792"/>
+        <c:axId val="143504128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142247424"/>
+        <c:crossAx val="143505664"/>
         <c:crossesAt val="-10"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="142247424"/>
+        <c:axId val="143505664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1756,20 +1752,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142209792"/>
+        <c:crossAx val="143504128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1787,8 +1782,8 @@
           <c:yMode val="edge"/>
           <c:x val="2.5548563158700393E-2"/>
           <c:y val="3.4326632999452725E-2"/>
-          <c:w val="0.79885564705907963"/>
-          <c:h val="0.73184297373410756"/>
+          <c:w val="0.79885564705907974"/>
+          <c:h val="0.73184297373410778"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1865,13 +1860,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,49 +1932,49 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="165541376"/>
-        <c:axId val="165543296"/>
+        <c:axId val="143817344"/>
+        <c:axId val="143819136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="165541376"/>
+        <c:axId val="143817344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165543296"/>
+        <c:crossAx val="143819136"/>
         <c:crossesAt val="-10"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="165543296"/>
+        <c:axId val="143819136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,7 +1982,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165541376"/>
+        <c:crossAx val="143817344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2000,7 +1995,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2109,196 +2104,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="req list"/>
-      <sheetName val="sprints"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Φύλλο1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="19">
-          <cell r="G19">
-            <v>43156</v>
-          </cell>
-          <cell r="H19">
-            <v>43157</v>
-          </cell>
-          <cell r="I19">
-            <v>43158</v>
-          </cell>
-          <cell r="J19">
-            <v>43159</v>
-          </cell>
-          <cell r="K19">
-            <v>43160</v>
-          </cell>
-          <cell r="L19">
-            <v>43191</v>
-          </cell>
-          <cell r="M19">
-            <v>43160</v>
-          </cell>
-          <cell r="N19">
-            <v>43161</v>
-          </cell>
-          <cell r="O19">
-            <v>43162</v>
-          </cell>
-          <cell r="P19">
-            <v>43163</v>
-          </cell>
-          <cell r="Q19">
-            <v>43164</v>
-          </cell>
-          <cell r="R19">
-            <v>43164</v>
-          </cell>
-          <cell r="S19">
-            <v>43165</v>
-          </cell>
-          <cell r="T19">
-            <v>43166</v>
-          </cell>
-          <cell r="U19">
-            <v>43167</v>
-          </cell>
-          <cell r="V19">
-            <v>43168</v>
-          </cell>
-          <cell r="W19">
-            <v>43169</v>
-          </cell>
-          <cell r="X19">
-            <v>43170</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="G21">
-            <v>64</v>
-          </cell>
-          <cell r="H21">
-            <v>64</v>
-          </cell>
-          <cell r="I21">
-            <v>64</v>
-          </cell>
-          <cell r="J21">
-            <v>58</v>
-          </cell>
-          <cell r="K21">
-            <v>54</v>
-          </cell>
-          <cell r="L21">
-            <v>54</v>
-          </cell>
-          <cell r="M21">
-            <v>48</v>
-          </cell>
-          <cell r="N21">
-            <v>40</v>
-          </cell>
-          <cell r="O21">
-            <v>34</v>
-          </cell>
-          <cell r="P21">
-            <v>26</v>
-          </cell>
-          <cell r="Q21">
-            <v>20</v>
-          </cell>
-          <cell r="R21">
-            <v>14</v>
-          </cell>
-          <cell r="S21">
-            <v>12</v>
-          </cell>
-          <cell r="T21">
-            <v>10</v>
-          </cell>
-          <cell r="U21">
-            <v>8</v>
-          </cell>
-          <cell r="V21">
-            <v>0</v>
-          </cell>
-          <cell r="W21">
-            <v>-4</v>
-          </cell>
-          <cell r="X21">
-            <v>-4</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="G23">
-            <v>64</v>
-          </cell>
-          <cell r="H23">
-            <v>52</v>
-          </cell>
-          <cell r="I23">
-            <v>40</v>
-          </cell>
-          <cell r="J23">
-            <v>24</v>
-          </cell>
-          <cell r="K23">
-            <v>16</v>
-          </cell>
-          <cell r="L23">
-            <v>8</v>
-          </cell>
-          <cell r="M23">
-            <v>8</v>
-          </cell>
-          <cell r="N23">
-            <v>8</v>
-          </cell>
-          <cell r="O23">
-            <v>0</v>
-          </cell>
-          <cell r="P23">
-            <v>0</v>
-          </cell>
-          <cell r="Q23">
-            <v>0</v>
-          </cell>
-          <cell r="R23">
-            <v>0</v>
-          </cell>
-          <cell r="S23">
-            <v>0</v>
-          </cell>
-          <cell r="T23">
-            <v>0</v>
-          </cell>
-          <cell r="U23">
-            <v>0</v>
-          </cell>
-          <cell r="V23">
-            <v>0</v>
-          </cell>
-          <cell r="W23">
-            <v>0</v>
-          </cell>
-          <cell r="X23">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2607,82 +2412,82 @@
   <sheetData>
     <row r="1" spans="2:27" ht="24" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:27" ht="45" customHeight="1" thickBot="1">
-      <c r="B2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="58" t="s">
+      <c r="D2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="63" t="s">
+      <c r="F2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="59">
+      <c r="H2" s="47">
         <v>43156</v>
       </c>
-      <c r="I2" s="59">
+      <c r="I2" s="47">
         <v>43157</v>
       </c>
-      <c r="J2" s="59">
+      <c r="J2" s="47">
         <v>43158</v>
       </c>
-      <c r="K2" s="59">
+      <c r="K2" s="47">
         <v>43159</v>
       </c>
-      <c r="L2" s="59">
+      <c r="L2" s="47">
         <v>43160</v>
       </c>
-      <c r="M2" s="59">
+      <c r="M2" s="47">
         <v>43191</v>
       </c>
-      <c r="N2" s="59">
+      <c r="N2" s="47">
         <v>43160</v>
       </c>
-      <c r="O2" s="59">
+      <c r="O2" s="47">
         <v>43161</v>
       </c>
-      <c r="P2" s="59">
+      <c r="P2" s="47">
         <v>43162</v>
       </c>
-      <c r="Q2" s="59">
+      <c r="Q2" s="47">
         <v>43163</v>
       </c>
-      <c r="R2" s="59">
+      <c r="R2" s="47">
         <v>43164</v>
       </c>
-      <c r="S2" s="59">
+      <c r="S2" s="47">
         <v>43164</v>
       </c>
-      <c r="T2" s="59">
+      <c r="T2" s="47">
         <v>43165</v>
       </c>
-      <c r="U2" s="59">
+      <c r="U2" s="47">
         <v>43166</v>
       </c>
-      <c r="V2" s="59">
+      <c r="V2" s="47">
         <v>43167</v>
       </c>
-      <c r="W2" s="59">
+      <c r="W2" s="47">
         <v>43168</v>
       </c>
-      <c r="X2" s="59">
+      <c r="X2" s="47">
         <v>43169</v>
       </c>
-      <c r="Y2" s="59">
+      <c r="Y2" s="47">
         <v>43170</v>
       </c>
-      <c r="Z2" s="63" t="s">
+      <c r="Z2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="65" t="s">
+      <c r="AA2" s="53" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3530,71 +3335,71 @@
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="60">
+      <c r="H20" s="48">
         <v>43156</v>
       </c>
-      <c r="I20" s="61">
+      <c r="I20" s="49">
         <v>43157</v>
       </c>
-      <c r="J20" s="61">
+      <c r="J20" s="49">
         <v>43158</v>
       </c>
-      <c r="K20" s="61">
+      <c r="K20" s="49">
         <v>43159</v>
       </c>
-      <c r="L20" s="61">
+      <c r="L20" s="49">
         <v>43160</v>
       </c>
-      <c r="M20" s="61">
+      <c r="M20" s="49">
         <v>43191</v>
       </c>
-      <c r="N20" s="61">
+      <c r="N20" s="49">
         <v>43160</v>
       </c>
-      <c r="O20" s="61">
+      <c r="O20" s="49">
         <v>43161</v>
       </c>
-      <c r="P20" s="61">
+      <c r="P20" s="49">
         <v>43162</v>
       </c>
-      <c r="Q20" s="61">
+      <c r="Q20" s="49">
         <v>43163</v>
       </c>
-      <c r="R20" s="61">
+      <c r="R20" s="49">
         <v>43164</v>
       </c>
-      <c r="S20" s="61">
+      <c r="S20" s="49">
         <v>43164</v>
       </c>
-      <c r="T20" s="61">
+      <c r="T20" s="49">
         <v>43165</v>
       </c>
-      <c r="U20" s="61">
+      <c r="U20" s="49">
         <v>43166</v>
       </c>
-      <c r="V20" s="61">
+      <c r="V20" s="49">
         <v>43167</v>
       </c>
-      <c r="W20" s="61">
+      <c r="W20" s="49">
         <v>43168</v>
       </c>
-      <c r="X20" s="61">
+      <c r="X20" s="49">
         <v>43169</v>
       </c>
-      <c r="Y20" s="62">
+      <c r="Y20" s="50">
         <v>43170</v>
       </c>
       <c r="Z20" s="26"/>
     </row>
     <row r="21" spans="2:27" ht="27.75" customHeight="1" thickBot="1">
       <c r="B21" s="27"/>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="28">
         <f>SUM(H4:H19)</f>
         <v>0</v>
@@ -3667,20 +3472,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="66">
+      <c r="Z21" s="54">
         <f>SUM(H21:Y21)</f>
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:27" ht="27.75" customHeight="1" thickBot="1">
       <c r="B22" s="27"/>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
       <c r="H22" s="28">
         <f>64</f>
         <v>64</v>
@@ -3757,13 +3562,13 @@
     </row>
     <row r="23" spans="2:27" ht="27.75" customHeight="1" thickBot="1">
       <c r="B23" s="29"/>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="28">
         <v>0</v>
       </c>
@@ -3825,13 +3630,13 @@
     </row>
     <row r="24" spans="2:27" ht="27.75" customHeight="1" thickBot="1">
       <c r="B24" s="29"/>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="76"/>
       <c r="H24" s="30">
         <f>64</f>
         <v>64</v>
@@ -3904,7 +3709,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="67"/>
+      <c r="Z24" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3941,58 +3746,58 @@
   <sheetData>
     <row r="1" spans="2:17" ht="24" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:17" ht="45" customHeight="1" thickBot="1">
-      <c r="B2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="58" t="s">
+      <c r="D2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="63" t="s">
+      <c r="F2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="59">
+      <c r="H2" s="47">
         <v>43170</v>
       </c>
-      <c r="I2" s="59">
+      <c r="I2" s="47">
         <v>43171</v>
       </c>
-      <c r="J2" s="59">
+      <c r="J2" s="47">
         <v>43172</v>
       </c>
-      <c r="K2" s="59">
+      <c r="K2" s="47">
         <v>43173</v>
       </c>
-      <c r="L2" s="59">
+      <c r="L2" s="47">
         <v>43174</v>
       </c>
-      <c r="M2" s="59">
+      <c r="M2" s="47">
         <v>43175</v>
       </c>
-      <c r="N2" s="59">
+      <c r="N2" s="47">
         <v>43176</v>
       </c>
-      <c r="O2" s="59">
+      <c r="O2" s="47">
         <v>43177</v>
       </c>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="65" t="s">
+      <c r="Q2" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B3" s="71"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="56" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="31" t="s">
@@ -4021,7 +3826,7 @@
         <v>35</v>
       </c>
       <c r="Q3" s="41">
-        <f>P3-G3</f>
+        <f t="shared" ref="Q3:Q14" si="0">P3-G3</f>
         <v>2</v>
       </c>
     </row>
@@ -4029,7 +3834,7 @@
       <c r="B4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="57" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -4055,11 +3860,11 @@
       <c r="N4" s="44"/>
       <c r="O4" s="44"/>
       <c r="P4" s="11">
-        <f>SUM(H4:O4)</f>
+        <f t="shared" ref="P4:P14" si="1">SUM(H4:O4)</f>
         <v>1</v>
       </c>
       <c r="Q4" s="11">
-        <f>P4-G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4067,7 +3872,7 @@
       <c r="B5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="57" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -4093,11 +3898,11 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="13">
-        <f>SUM(H5:O5)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q5" s="13">
-        <f>P5-G5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4105,7 +3910,7 @@
       <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="57" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -4131,11 +3936,11 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="13">
-        <f>SUM(H6:O6)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q6" s="13">
-        <f>P6-G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4143,7 +3948,7 @@
       <c r="B7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="57" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -4173,11 +3978,11 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="13">
-        <f>SUM(H7:O7)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Q7" s="13">
-        <f>P7-G7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -4185,7 +3990,7 @@
       <c r="B8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="57" t="s">
         <v>77</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -4213,11 +4018,11 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="13">
-        <f>SUM(H8:O8)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q8" s="13">
-        <f>P8-G8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4225,7 +4030,7 @@
       <c r="B9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="57" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -4251,11 +4056,11 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="13">
-        <f>SUM(H9:O9)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q9" s="13">
-        <f>P9-G9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4263,7 +4068,7 @@
       <c r="B10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="57" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -4289,11 +4094,11 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="13">
-        <f>SUM(H10:O10)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q10" s="13">
-        <f>P10-G10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4301,7 +4106,7 @@
       <c r="B11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="57" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -4327,11 +4132,11 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="13">
-        <f>SUM(H11:O11)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q11" s="13">
-        <f>P11-G11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4339,7 +4144,7 @@
       <c r="B12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="57" t="s">
         <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -4365,11 +4170,11 @@
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="13">
-        <f>SUM(H12:O12)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q12" s="13">
-        <f>P12-G12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4377,7 +4182,7 @@
       <c r="B13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="57" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -4403,11 +4208,11 @@
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="13">
-        <f>SUM(H13:O13)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q13" s="13">
-        <f>P13-G13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4415,7 +4220,7 @@
       <c r="B14" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="58" t="s">
         <v>80</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -4443,11 +4248,11 @@
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="22">
-        <f>SUM(H14:O14)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q14" s="22">
-        <f>P14-G14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4458,129 +4263,129 @@
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="59">
+      <c r="H15" s="47">
         <v>43170</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="47">
         <v>43171</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="47">
         <v>43172</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="47">
         <v>43173</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="47">
         <v>43174</v>
       </c>
-      <c r="M15" s="59">
+      <c r="M15" s="47">
         <v>43175</v>
       </c>
-      <c r="N15" s="59">
+      <c r="N15" s="47">
         <v>43176</v>
       </c>
-      <c r="O15" s="59">
+      <c r="O15" s="47">
         <v>43177</v>
       </c>
       <c r="P15" s="26"/>
     </row>
     <row r="16" spans="2:17" ht="27.75" customHeight="1" thickBot="1">
       <c r="B16" s="27"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
       <c r="H16" s="43">
-        <f>SUM(H4:H14)</f>
+        <f t="shared" ref="H16:O16" si="2">SUM(H4:H14)</f>
         <v>0</v>
       </c>
       <c r="I16" s="44">
-        <f>SUM(I4:I14)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J16" s="44">
-        <f>SUM(J4:J14)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K16" s="44">
-        <f>SUM(K4:K14)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="L16" s="44">
-        <f>SUM(L4:L14)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M16" s="44">
-        <f>SUM(M4:M14)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N16" s="44">
-        <f>SUM(N4:N14)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O16" s="45">
-        <f>SUM(O4:O14)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="60">
         <f>SUM(H16:O16)</f>
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="27.75" customHeight="1" thickBot="1">
       <c r="B17" s="27"/>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
       <c r="H17" s="28">
         <v>33</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" ref="I17:O17" si="0">H17-I16</f>
+        <f t="shared" ref="I17:O17" si="3">H17-I16</f>
         <v>29</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="L17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="M17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="P17" s="26"/>
     </row>
     <row r="18" spans="2:16" ht="27.75" customHeight="1" thickBot="1">
       <c r="B18" s="29"/>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
       <c r="H18" s="28">
         <v>0</v>
       </c>
@@ -4605,52 +4410,52 @@
       <c r="O18" s="10">
         <v>0</v>
       </c>
-      <c r="P18" s="73">
+      <c r="P18" s="61">
         <f>SUM(H18:O18)</f>
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="27.75" customHeight="1" thickBot="1">
       <c r="B19" s="29"/>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
       <c r="H19" s="30">
         <v>33</v>
       </c>
       <c r="I19" s="20">
-        <f t="shared" ref="I19:O19" si="1">H19-I18</f>
+        <f t="shared" ref="I19:O19" si="4">H19-I18</f>
         <v>26</v>
       </c>
       <c r="J19" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="K19" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="L19" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="M19" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N19" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O19" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="67"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4669,7 +4474,7 @@
   <dimension ref="B1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:O12"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1"/>
@@ -4687,58 +4492,58 @@
   <sheetData>
     <row r="1" spans="2:17" ht="24" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:17" ht="45" customHeight="1" thickBot="1">
-      <c r="B2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="58" t="s">
+      <c r="D2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="63" t="s">
+      <c r="F2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="59">
+      <c r="H2" s="47">
         <v>43177</v>
       </c>
-      <c r="I2" s="59">
+      <c r="I2" s="47">
         <v>43178</v>
       </c>
-      <c r="J2" s="59">
+      <c r="J2" s="47">
         <v>43179</v>
       </c>
-      <c r="K2" s="59">
+      <c r="K2" s="47">
         <v>43180</v>
       </c>
-      <c r="L2" s="59">
+      <c r="L2" s="47">
         <v>43181</v>
       </c>
-      <c r="M2" s="59">
+      <c r="M2" s="47">
         <v>43182</v>
       </c>
-      <c r="N2" s="59">
+      <c r="N2" s="47">
         <v>43183</v>
       </c>
-      <c r="O2" s="59">
+      <c r="O2" s="47">
         <v>43184</v>
       </c>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="65" t="s">
+      <c r="Q2" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B3" s="74"/>
-      <c r="C3" s="75" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4764,11 +4569,11 @@
       <c r="O3" s="39"/>
       <c r="P3" s="41">
         <f>SUM(P4:P11)</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="41">
-        <f>P3-G3</f>
-        <v>-6</v>
+        <f t="shared" ref="Q3:Q11" si="0">P3-G3</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="27.75" customHeight="1">
@@ -4801,11 +4606,11 @@
       <c r="N4" s="44"/>
       <c r="O4" s="44"/>
       <c r="P4" s="11">
-        <f>SUM(H4:O4)</f>
+        <f t="shared" ref="P4:P11" si="1">SUM(H4:O4)</f>
         <v>4</v>
       </c>
       <c r="Q4" s="11">
-        <f>P4-G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4841,11 +4646,11 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="13">
-        <f>SUM(H5:O5)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Q5" s="13">
-        <f>P5-G5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -4881,11 +4686,11 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="13">
-        <f>SUM(H6:O6)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Q6" s="13">
-        <f>P6-G6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -4919,11 +4724,11 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="13">
-        <f>SUM(H7:O7)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q7" s="13">
-        <f>P7-G7</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -4957,11 +4762,11 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="13">
-        <f>SUM(H8:O8)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q8" s="13">
-        <f>P8-G8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4988,19 +4793,19 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9">
+        <v>4</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="13">
-        <f>SUM(H9:O9)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Q9" s="13">
-        <f>P9-G9</f>
-        <v>-4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="27.75" customHeight="1">
@@ -5026,23 +4831,23 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9">
+        <v>4</v>
+      </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="13">
-        <f>SUM(H10:O10)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Q10" s="13">
-        <f>P10-G10</f>
-        <v>-4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="76">
+      <c r="B11" s="64">
         <v>8</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -5071,11 +4876,11 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="22">
-        <f>SUM(H11:O11)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q11" s="22">
-        <f>P11-G11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5086,146 +4891,146 @@
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="59">
+      <c r="H12" s="47">
         <v>43177</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I12" s="47">
         <v>43178</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="47">
         <v>43179</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="47">
         <v>43180</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="47">
         <v>43181</v>
       </c>
-      <c r="M12" s="59">
+      <c r="M12" s="47">
         <v>43182</v>
       </c>
-      <c r="N12" s="59">
+      <c r="N12" s="47">
         <v>43183</v>
       </c>
-      <c r="O12" s="59">
+      <c r="O12" s="47">
         <v>43184</v>
       </c>
       <c r="P12" s="26"/>
     </row>
     <row r="13" spans="2:17" ht="27.75" customHeight="1" thickBot="1">
       <c r="B13" s="27"/>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
       <c r="H13" s="43">
-        <f>SUM(H4:H11)</f>
+        <f t="shared" ref="H13:O13" si="2">SUM(H4:H11)</f>
         <v>0</v>
       </c>
       <c r="I13" s="44">
-        <f>SUM(I4:I11)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J13" s="44">
-        <f>SUM(J4:J11)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K13" s="44">
-        <f>SUM(K4:K11)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L13" s="44">
-        <f>SUM(L4:L11)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M13" s="44">
-        <f>SUM(M4:M11)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="N13" s="44">
-        <f>SUM(N4:N11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O13" s="45">
-        <f>SUM(O4:O11)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="60">
         <f>SUM(H13:O13)</f>
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="27.75" customHeight="1" thickBot="1">
       <c r="B14" s="27"/>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="28">
         <v>32</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" ref="I14:O14" si="0">H14-I13</f>
+        <f t="shared" ref="I14:O14" si="3">H14-I13</f>
         <v>24</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="K14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="L14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="M14" s="9">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>-2</v>
       </c>
       <c r="N14" s="9">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>-2</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>-2</v>
       </c>
       <c r="P14" s="26"/>
     </row>
     <row r="15" spans="2:17" ht="27.75" customHeight="1" thickBot="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
       <c r="H15" s="28">
         <v>0</v>
       </c>
       <c r="I15" s="9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J15" s="9">
         <v>8</v>
       </c>
       <c r="K15" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L15" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M15" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N15" s="9">
         <v>0</v>
@@ -5233,52 +5038,52 @@
       <c r="O15" s="10">
         <v>0</v>
       </c>
-      <c r="P15" s="73">
+      <c r="P15" s="61">
         <f>SUM(H15:O15)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="27.75" customHeight="1" thickBot="1">
       <c r="B16" s="29"/>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="30">
         <v>32</v>
       </c>
       <c r="I16" s="20">
-        <f t="shared" ref="I16:O16" si="1">H16-I15</f>
-        <v>25</v>
+        <f t="shared" ref="I16:O16" si="4">H16-I15</f>
+        <v>20</v>
       </c>
       <c r="J16" s="20">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="K16" s="20">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="L16" s="20">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M16" s="20">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N16" s="20">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O16" s="21">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="P16" s="67"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/documents/sprints.xlsx
+++ b/documents/sprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="14385" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="sprint 1" sheetId="1" r:id="rId1"/>
@@ -983,10 +983,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1180,9 +1181,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Ποσοστό" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1200,9 +1203,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.9687445319335101E-2"/>
-          <c:y val="6.0143627879848373E-2"/>
-          <c:w val="0.75765655827810074"/>
-          <c:h val="0.7214117231866416"/>
+          <c:y val="6.0143627879848394E-2"/>
+          <c:w val="0.75765655827810086"/>
+          <c:h val="0.72141172318664148"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1450,57 +1453,57 @@
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="143407744"/>
-        <c:axId val="143425920"/>
+        <c:axId val="172780160"/>
+        <c:axId val="172798336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="143407744"/>
+        <c:axId val="172780160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43170"/>
@@ -1508,13 +1511,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143425920"/>
+        <c:crossAx val="172798336"/>
         <c:crossesAt val="-20"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="143425920"/>
+        <c:axId val="172798336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,19 +1525,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143407744"/>
+        <c:crossAx val="172780160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1552,8 +1556,8 @@
           <c:yMode val="edge"/>
           <c:x val="2.5548563158700393E-2"/>
           <c:y val="3.4326632999452725E-2"/>
-          <c:w val="0.79885564705907941"/>
-          <c:h val="0.73184297373410745"/>
+          <c:w val="0.79885564705907963"/>
+          <c:h val="0.73184297373410756"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1727,24 +1731,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="143504128"/>
-        <c:axId val="143505664"/>
+        <c:axId val="172925696"/>
+        <c:axId val="172927232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="143504128"/>
+        <c:axId val="172925696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143505664"/>
+        <c:crossAx val="172927232"/>
         <c:crossesAt val="-10"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="143505664"/>
+        <c:axId val="172927232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,7 +1756,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143504128"/>
+        <c:crossAx val="172925696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1764,7 +1768,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1782,8 +1786,8 @@
           <c:yMode val="edge"/>
           <c:x val="2.5548563158700393E-2"/>
           <c:y val="3.4326632999452725E-2"/>
-          <c:w val="0.79885564705907974"/>
-          <c:h val="0.73184297373410778"/>
+          <c:w val="0.79885564705907985"/>
+          <c:h val="0.73184297373410789"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1957,24 +1961,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="143817344"/>
-        <c:axId val="143819136"/>
+        <c:axId val="173165184"/>
+        <c:axId val="173166976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="143817344"/>
+        <c:axId val="173165184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143819136"/>
+        <c:crossAx val="173166976"/>
         <c:crossesAt val="-10"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="143819136"/>
+        <c:axId val="173166976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1982,7 +1986,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143817344"/>
+        <c:crossAx val="173165184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1995,7 +1999,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2391,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AA24"/>
+  <dimension ref="B1:AB24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:G24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1"/>
@@ -2408,10 +2412,11 @@
     <col min="8" max="25" width="9" customWidth="1"/>
     <col min="26" max="26" width="18.140625" customWidth="1"/>
     <col min="27" max="27" width="9.85546875" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="24" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:27" ht="45" customHeight="1" thickBot="1">
+    <row r="1" spans="2:28" ht="24" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:28" ht="45" customHeight="1" thickBot="1">
       <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
@@ -2491,7 +2496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="27.75" customHeight="1" thickBot="1">
+    <row r="3" spans="2:28" ht="27.75" customHeight="1" thickBot="1">
       <c r="B3" s="42"/>
       <c r="C3" s="34" t="s">
         <v>8</v>
@@ -2529,14 +2534,14 @@
       <c r="Y3" s="40"/>
       <c r="Z3" s="41">
         <f>SUM(Z4:Z19)</f>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AA3" s="41">
         <f>Z3-G3</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27" ht="27.75" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" ht="27.75" customHeight="1">
       <c r="B4" s="32">
         <v>1</v>
       </c>
@@ -2564,7 +2569,9 @@
       <c r="L4" s="44">
         <v>4</v>
       </c>
-      <c r="M4" s="44"/>
+      <c r="M4" s="44">
+        <v>1</v>
+      </c>
       <c r="N4" s="44"/>
       <c r="O4" s="44"/>
       <c r="P4" s="44"/>
@@ -2579,14 +2586,15 @@
       <c r="Y4" s="45"/>
       <c r="Z4" s="11">
         <f>SUM(H4:Y4)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA4" s="11">
         <f t="shared" ref="AA4:AA19" si="0">Z4-G4</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27" ht="27.75" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="77"/>
+    </row>
+    <row r="5" spans="2:28" ht="27.75" customHeight="1">
       <c r="B5" s="32" t="s">
         <v>14</v>
       </c>
@@ -2611,7 +2619,9 @@
       <c r="K5" s="9">
         <v>4</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="9">
+        <v>4</v>
+      </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -2627,14 +2637,15 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="13">
         <f t="shared" ref="Z5:Z19" si="1">SUM(H5:Y5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA5" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" ht="27.75" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="77"/>
+    </row>
+    <row r="6" spans="2:28" ht="27.75" customHeight="1">
       <c r="B6" s="32" t="s">
         <v>16</v>
       </c>
@@ -2689,8 +2700,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:27" ht="27.75" customHeight="1">
+      <c r="AB6" s="77"/>
+    </row>
+    <row r="7" spans="2:28" ht="27.75" customHeight="1">
       <c r="B7" s="32" t="s">
         <v>20</v>
       </c>
@@ -2737,8 +2749,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:27" ht="27.75" customHeight="1">
+      <c r="AB7" s="77"/>
+    </row>
+    <row r="8" spans="2:28" ht="27.75" customHeight="1">
       <c r="B8" s="32" t="s">
         <v>23</v>
       </c>
@@ -2767,7 +2780,9 @@
       <c r="O8" s="9">
         <v>4</v>
       </c>
-      <c r="P8" s="9"/>
+      <c r="P8" s="9">
+        <v>2</v>
+      </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
@@ -2779,14 +2794,15 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="13">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA8" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27" ht="27.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="77"/>
+    </row>
+    <row r="9" spans="2:28" ht="27.75" customHeight="1">
       <c r="B9" s="32" t="s">
         <v>25</v>
       </c>
@@ -2817,9 +2833,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="9"/>
-      <c r="R9" s="9">
-        <v>2</v>
-      </c>
+      <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
@@ -2829,14 +2843,15 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="13">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27" ht="27.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="77"/>
+    </row>
+    <row r="10" spans="2:28" ht="27.75" customHeight="1">
       <c r="B10" s="32" t="s">
         <v>29</v>
       </c>
@@ -2869,7 +2884,9 @@
       <c r="Q10" s="9">
         <v>2</v>
       </c>
-      <c r="R10" s="9"/>
+      <c r="R10" s="9">
+        <v>2</v>
+      </c>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -2879,14 +2896,15 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="13">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA10" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27" ht="27.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="77"/>
+    </row>
+    <row r="11" spans="2:28" ht="27.75" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>31</v>
       </c>
@@ -2937,8 +2955,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:27" ht="27.75" customHeight="1">
+      <c r="AB11" s="77"/>
+    </row>
+    <row r="12" spans="2:28" ht="27.75" customHeight="1">
       <c r="B12" s="32" t="s">
         <v>33</v>
       </c>
@@ -2985,8 +3004,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:27" ht="27.75" customHeight="1">
+      <c r="AB12" s="77"/>
+    </row>
+    <row r="13" spans="2:28" ht="27.75" customHeight="1">
       <c r="B13" s="32" t="s">
         <v>35</v>
       </c>
@@ -3035,8 +3055,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:27" ht="27.75" customHeight="1">
+      <c r="AB13" s="77"/>
+    </row>
+    <row r="14" spans="2:28" ht="27.75" customHeight="1">
       <c r="B14" s="32" t="s">
         <v>37</v>
       </c>
@@ -3083,8 +3104,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:27" ht="27.75" customHeight="1">
+      <c r="AB14" s="77"/>
+    </row>
+    <row r="15" spans="2:28" ht="27.75" customHeight="1">
       <c r="B15" s="32" t="s">
         <v>39</v>
       </c>
@@ -3115,7 +3137,9 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
+      <c r="T15" s="9">
+        <v>2</v>
+      </c>
       <c r="U15" s="9">
         <v>2</v>
       </c>
@@ -3127,14 +3151,15 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="13">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA15" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:27" ht="27.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="77"/>
+    </row>
+    <row r="16" spans="2:28" ht="27.75" customHeight="1">
       <c r="B16" s="32" t="s">
         <v>42</v>
       </c>
@@ -3181,8 +3206,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:27" ht="27.75" customHeight="1">
+      <c r="AB16" s="77"/>
+    </row>
+    <row r="17" spans="2:28" ht="27.75" customHeight="1">
       <c r="B17" s="32" t="s">
         <v>44</v>
       </c>
@@ -3229,8 +3255,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:27" ht="27.75" customHeight="1">
+      <c r="AB17" s="77"/>
+    </row>
+    <row r="18" spans="2:28" ht="27.75" customHeight="1">
       <c r="B18" s="32" t="s">
         <v>47</v>
       </c>
@@ -3277,8 +3304,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:27" ht="27.75" customHeight="1" thickBot="1">
+      <c r="AB18" s="77"/>
+    </row>
+    <row r="19" spans="2:28" ht="27.75" customHeight="1" thickBot="1">
       <c r="B19" s="33" t="s">
         <v>49</v>
       </c>
@@ -3327,8 +3355,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:27" ht="27.75" customHeight="1" thickBot="1">
+      <c r="AB19" s="77"/>
+    </row>
+    <row r="20" spans="2:28" ht="27.75" customHeight="1" thickBot="1">
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -3391,7 +3420,7 @@
       </c>
       <c r="Z20" s="26"/>
     </row>
-    <row r="21" spans="2:27" ht="27.75" customHeight="1" thickBot="1">
+    <row r="21" spans="2:28" ht="27.75" customHeight="1" thickBot="1">
       <c r="B21" s="27"/>
       <c r="C21" s="65" t="s">
         <v>51</v>
@@ -3418,11 +3447,11 @@
       </c>
       <c r="L21" s="9">
         <f t="shared" ref="L21:Y21" si="2">SUM(L4:L19)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M21" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="9">
         <f t="shared" si="2"/>
@@ -3434,7 +3463,7 @@
       </c>
       <c r="P21" s="9">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q21" s="9">
         <f t="shared" si="2"/>
@@ -3450,7 +3479,7 @@
       </c>
       <c r="T21" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U21" s="9">
         <f t="shared" si="2"/>
@@ -3474,10 +3503,10 @@
       </c>
       <c r="Z21" s="54">
         <f>SUM(H21:Y21)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" ht="27.75" customHeight="1" thickBot="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="27.75" customHeight="1" thickBot="1">
       <c r="B22" s="27"/>
       <c r="C22" s="68" t="s">
         <v>81</v>
@@ -3504,63 +3533,63 @@
       </c>
       <c r="L22" s="9">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N22" s="9">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O22" s="9">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P22" s="9">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q22" s="9">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R22" s="9">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="S22" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T22" s="9">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U22" s="9">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="V22" s="9">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="W22" s="9">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="X22" s="9">
         <f t="shared" si="3"/>
-        <v>-6</v>
+        <v>-15</v>
       </c>
       <c r="Y22" s="10">
         <f t="shared" si="3"/>
-        <v>-6</v>
+        <v>-15</v>
       </c>
       <c r="Z22" s="26"/>
     </row>
-    <row r="23" spans="2:27" ht="27.75" customHeight="1" thickBot="1">
+    <row r="23" spans="2:28" ht="27.75" customHeight="1" thickBot="1">
       <c r="B23" s="29"/>
       <c r="C23" s="71" t="s">
         <v>52</v>
@@ -3628,7 +3657,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:27" ht="27.75" customHeight="1" thickBot="1">
+    <row r="24" spans="2:28" ht="27.75" customHeight="1" thickBot="1">
       <c r="B24" s="29"/>
       <c r="C24" s="74" t="s">
         <v>82</v>
@@ -4473,7 +4502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
